--- a/Code/Results/Cases/Case_9_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006546617726764</v>
+        <v>1.005940698739866</v>
       </c>
       <c r="D2">
-        <v>1.03031294005373</v>
+        <v>1.02911347361327</v>
       </c>
       <c r="E2">
-        <v>1.01187047638339</v>
+        <v>1.011426089495266</v>
       </c>
       <c r="F2">
-        <v>1.033334750894941</v>
+        <v>1.032509851067255</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051902533271112</v>
+        <v>1.051293463313582</v>
       </c>
       <c r="J2">
-        <v>1.028533268290561</v>
+        <v>1.027945164858732</v>
       </c>
       <c r="K2">
-        <v>1.041365522682893</v>
+        <v>1.040181581154395</v>
       </c>
       <c r="L2">
-        <v>1.023166877092903</v>
+        <v>1.022728503174563</v>
       </c>
       <c r="M2">
-        <v>1.044348421435776</v>
+        <v>1.04353411564416</v>
       </c>
       <c r="N2">
-        <v>1.012818505891897</v>
+        <v>1.014268374395884</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043671184464108</v>
+        <v>1.043026718561689</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040319289297132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039490898736568</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022600645934152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011304718572417</v>
+        <v>1.01037157468261</v>
       </c>
       <c r="D3">
-        <v>1.033608486798529</v>
+        <v>1.032070461121112</v>
       </c>
       <c r="E3">
-        <v>1.015716662580053</v>
+        <v>1.01497617881132</v>
       </c>
       <c r="F3">
-        <v>1.036633475350943</v>
+        <v>1.035551537512336</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05308558487064</v>
+        <v>1.052303779800712</v>
       </c>
       <c r="J3">
-        <v>1.031491878819317</v>
+        <v>1.030583438565392</v>
       </c>
       <c r="K3">
-        <v>1.043828668206861</v>
+        <v>1.042308801662315</v>
       </c>
       <c r="L3">
-        <v>1.026152318940192</v>
+        <v>1.025420956656483</v>
       </c>
       <c r="M3">
-        <v>1.046818135894961</v>
+        <v>1.045748873187985</v>
       </c>
       <c r="N3">
-        <v>1.013868893995164</v>
+        <v>1.015000026716337</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045625786705442</v>
+        <v>1.044779542438879</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042058284186593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040992085316928</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023076991246202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014320011241282</v>
+        <v>1.013182460782024</v>
       </c>
       <c r="D4">
-        <v>1.035699012100231</v>
+        <v>1.033948213945415</v>
       </c>
       <c r="E4">
-        <v>1.018159866694836</v>
+        <v>1.017234303713121</v>
       </c>
       <c r="F4">
-        <v>1.038730837615711</v>
+        <v>1.037487664946926</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053821200462547</v>
+        <v>1.052930627178542</v>
       </c>
       <c r="J4">
-        <v>1.033364369903409</v>
+        <v>1.032254865017884</v>
       </c>
       <c r="K4">
-        <v>1.045384858442818</v>
+        <v>1.043653476951123</v>
       </c>
       <c r="L4">
-        <v>1.028043949424698</v>
+        <v>1.027129082191497</v>
       </c>
       <c r="M4">
-        <v>1.048383250678623</v>
+        <v>1.047153757979856</v>
       </c>
       <c r="N4">
-        <v>1.01453328950505</v>
+        <v>1.015463573862719</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046864460348752</v>
+        <v>1.045891407163406</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043159531066756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041943853927956</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023375677402405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015578357681481</v>
+        <v>1.014355675916082</v>
       </c>
       <c r="D5">
-        <v>1.03657350963826</v>
+        <v>1.034734137694241</v>
       </c>
       <c r="E5">
-        <v>1.019181822685925</v>
+        <v>1.018179019934047</v>
       </c>
       <c r="F5">
-        <v>1.039608040574859</v>
+        <v>1.038297760724531</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054126168913174</v>
+        <v>1.053190268342988</v>
       </c>
       <c r="J5">
-        <v>1.034147084067983</v>
+        <v>1.032953632556773</v>
       </c>
       <c r="K5">
-        <v>1.046035636498326</v>
+        <v>1.044216117096376</v>
       </c>
       <c r="L5">
-        <v>1.028835185500399</v>
+        <v>1.027843654701122</v>
       </c>
       <c r="M5">
-        <v>1.049037603492776</v>
+        <v>1.047741355816171</v>
       </c>
       <c r="N5">
-        <v>1.014812417312384</v>
+        <v>1.015658312476176</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047382332026215</v>
+        <v>1.046356447862012</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043626818891208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042349533429318</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023500939797787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015795329688046</v>
+        <v>1.014557400982825</v>
       </c>
       <c r="D6">
-        <v>1.036726306060935</v>
+        <v>1.034871460687728</v>
       </c>
       <c r="E6">
-        <v>1.019359332976357</v>
+        <v>1.01834252568724</v>
       </c>
       <c r="F6">
-        <v>1.039759784054943</v>
+        <v>1.038437715528552</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.05418028807058</v>
+        <v>1.05323646792265</v>
       </c>
       <c r="J6">
-        <v>1.034284323341846</v>
+        <v>1.03307583475863</v>
       </c>
       <c r="K6">
-        <v>1.046150855335884</v>
+        <v>1.044315937164471</v>
       </c>
       <c r="L6">
-        <v>1.028973954049982</v>
+        <v>1.027968522405003</v>
       </c>
       <c r="M6">
-        <v>1.049151931276525</v>
+        <v>1.047843955907424</v>
       </c>
       <c r="N6">
-        <v>1.014863183809356</v>
+        <v>1.015693513922238</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047472813942832</v>
+        <v>1.046437648297851</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043716988883503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042429686532755</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023524190691061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014354549013053</v>
+        <v>1.013224232095764</v>
       </c>
       <c r="D7">
-        <v>1.035728293275778</v>
+        <v>1.03398212759624</v>
       </c>
       <c r="E7">
-        <v>1.018191242668124</v>
+        <v>1.017272314142728</v>
       </c>
       <c r="F7">
-        <v>1.038755934801698</v>
+        <v>1.037516822761755</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053834234401885</v>
+        <v>1.052946013560484</v>
       </c>
       <c r="J7">
-        <v>1.033392098418747</v>
+        <v>1.032289635750329</v>
       </c>
       <c r="K7">
-        <v>1.045410952247219</v>
+        <v>1.043684143953306</v>
       </c>
       <c r="L7">
-        <v>1.028072033774888</v>
+        <v>1.027163719883966</v>
       </c>
       <c r="M7">
-        <v>1.048405219893776</v>
+        <v>1.047179737728446</v>
       </c>
       <c r="N7">
-        <v>1.014548184585483</v>
+        <v>1.015503516443358</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046881847357588</v>
+        <v>1.045911968239941</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043198001027048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041987561607954</v>
+      </c>
+      <c r="S7">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T7">
+        <v>1.02338669020445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008190610360442</v>
+        <v>1.007503426996632</v>
       </c>
       <c r="D8">
-        <v>1.031457517884936</v>
+        <v>1.030163602366755</v>
       </c>
       <c r="E8">
-        <v>1.013202600417684</v>
+        <v>1.012686003955594</v>
       </c>
       <c r="F8">
-        <v>1.034474191217931</v>
+        <v>1.03357951828919</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052319786761114</v>
+        <v>1.051662524439396</v>
       </c>
       <c r="J8">
-        <v>1.029563859193642</v>
+        <v>1.028896187382308</v>
       </c>
       <c r="K8">
-        <v>1.042227591703497</v>
+        <v>1.040949920210771</v>
       </c>
       <c r="L8">
-        <v>1.024206655250776</v>
+        <v>1.023696834026846</v>
       </c>
       <c r="M8">
-        <v>1.045206589846581</v>
+        <v>1.04432306188904</v>
       </c>
       <c r="N8">
-        <v>1.013191118780507</v>
+        <v>1.014619095753799</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044350363935731</v>
+        <v>1.043651114170636</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040951682717058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040059285691543</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022781036148309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9967870200753335</v>
+        <v>0.9969105905580371</v>
       </c>
       <c r="D9">
-        <v>1.023567836568149</v>
+        <v>1.023101237292171</v>
       </c>
       <c r="E9">
-        <v>1.004016212890664</v>
+        <v>1.004233195118186</v>
       </c>
       <c r="F9">
-        <v>1.026609485112391</v>
+        <v>1.026345465952078</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049400952346709</v>
+        <v>1.049164501626596</v>
       </c>
       <c r="J9">
-        <v>1.02245374935573</v>
+        <v>1.022572917509759</v>
       </c>
       <c r="K9">
-        <v>1.036289773877108</v>
+        <v>1.035830310815624</v>
       </c>
       <c r="L9">
-        <v>1.017044464186778</v>
+        <v>1.017257963028649</v>
       </c>
       <c r="M9">
-        <v>1.039285105743466</v>
+        <v>1.039025093066256</v>
       </c>
       <c r="N9">
-        <v>1.010659194652579</v>
+        <v>1.012872937448894</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03966391604277</v>
+        <v>1.039458133173572</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036750079556654</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036435949448779</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021618574743264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9889027357743232</v>
+        <v>0.9896428631898287</v>
       </c>
       <c r="D10">
-        <v>1.018151711733234</v>
+        <v>1.018294578612276</v>
       </c>
       <c r="E10">
-        <v>0.9977203730134959</v>
+        <v>0.9984934896978049</v>
       </c>
       <c r="F10">
-        <v>1.02129101695942</v>
+        <v>1.021495837033345</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047332480535379</v>
+        <v>1.047404766405569</v>
       </c>
       <c r="J10">
-        <v>1.017563668184445</v>
+        <v>1.01827351860247</v>
       </c>
       <c r="K10">
-        <v>1.032200787211906</v>
+        <v>1.032341192599493</v>
       </c>
       <c r="L10">
-        <v>1.012130909175418</v>
+        <v>1.012889998032148</v>
       </c>
       <c r="M10">
-        <v>1.035286209538238</v>
+        <v>1.035487528957437</v>
       </c>
       <c r="N10">
-        <v>1.008942552900105</v>
+        <v>1.011818696919232</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036550606126168</v>
+        <v>1.036709927832438</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033875722982465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033987431986591</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020832721763871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9861723399168735</v>
+        <v>0.9870904835172978</v>
       </c>
       <c r="D11">
-        <v>1.0164372468909</v>
+        <v>1.016774492403186</v>
       </c>
       <c r="E11">
-        <v>0.995700656950636</v>
+        <v>0.9966109713018537</v>
       </c>
       <c r="F11">
-        <v>1.020059697871153</v>
+        <v>1.020411621364096</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046745560715698</v>
+        <v>1.046916086889641</v>
       </c>
       <c r="J11">
-        <v>1.016131898613608</v>
+        <v>1.017010352790439</v>
       </c>
       <c r="K11">
-        <v>1.031055698388939</v>
+        <v>1.031386851209221</v>
       </c>
       <c r="L11">
-        <v>1.01070411060674</v>
+        <v>1.01159708399953</v>
       </c>
       <c r="M11">
-        <v>1.034612979767088</v>
+        <v>1.034958604016015</v>
       </c>
       <c r="N11">
-        <v>1.008647961752968</v>
+        <v>1.011829305638436</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036455048988079</v>
+        <v>1.036728433660476</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033099009760595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033348796780527</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020716622470588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9853927825442724</v>
+        <v>0.9863256326047826</v>
       </c>
       <c r="D12">
-        <v>1.016007908131951</v>
+        <v>1.016380085190825</v>
       </c>
       <c r="E12">
-        <v>0.9951927308367357</v>
+        <v>0.9960959583648952</v>
       </c>
       <c r="F12">
-        <v>1.019974775942633</v>
+        <v>1.020350752793423</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046630810676742</v>
+        <v>1.046818957128523</v>
       </c>
       <c r="J12">
-        <v>1.015828474944784</v>
+        <v>1.016720206777498</v>
       </c>
       <c r="K12">
-        <v>1.030834716362898</v>
+        <v>1.03120005604888</v>
       </c>
       <c r="L12">
-        <v>1.010412613723355</v>
+        <v>1.011298337821722</v>
       </c>
       <c r="M12">
-        <v>1.034729041892667</v>
+        <v>1.035098181312917</v>
       </c>
       <c r="N12">
-        <v>1.00869911400942</v>
+        <v>1.011942216034875</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036873888318441</v>
+        <v>1.037165774006451</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032942767572358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033216728788094</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020739250715749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9860930023315726</v>
+        <v>0.9868961985789599</v>
       </c>
       <c r="D13">
-        <v>1.016567914403906</v>
+        <v>1.01684096624937</v>
       </c>
       <c r="E13">
-        <v>0.9958402747888603</v>
+        <v>0.9966071156737583</v>
       </c>
       <c r="F13">
-        <v>1.020799832901239</v>
+        <v>1.021095326933056</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046892058003356</v>
+        <v>1.047030103019613</v>
       </c>
       <c r="J13">
-        <v>1.016402998232032</v>
+        <v>1.017170986072778</v>
       </c>
       <c r="K13">
-        <v>1.031341444868429</v>
+        <v>1.031609503713382</v>
       </c>
       <c r="L13">
-        <v>1.011003301440015</v>
+        <v>1.011755354470662</v>
       </c>
       <c r="M13">
-        <v>1.035496369165681</v>
+        <v>1.035786518066745</v>
       </c>
       <c r="N13">
-        <v>1.009036502904038</v>
+        <v>1.012114377132356</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037757682471292</v>
+        <v>1.037987051022339</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033298544205978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033503476450607</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020879444141057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9872482808883246</v>
+        <v>0.9878995122807999</v>
       </c>
       <c r="D14">
-        <v>1.017404619110618</v>
+        <v>1.0175506046824</v>
       </c>
       <c r="E14">
-        <v>0.9968118141109913</v>
+        <v>0.9974294975211122</v>
       </c>
       <c r="F14">
-        <v>1.021785201041673</v>
+        <v>1.021979649411821</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04724319931923</v>
+        <v>1.047317017587844</v>
       </c>
       <c r="J14">
-        <v>1.017197767132357</v>
+        <v>1.017820883530474</v>
       </c>
       <c r="K14">
-        <v>1.032022156715367</v>
+        <v>1.03216550733976</v>
       </c>
       <c r="L14">
-        <v>1.011811154608599</v>
+        <v>1.012417085849205</v>
       </c>
       <c r="M14">
-        <v>1.036324097360435</v>
+        <v>1.036515075234275</v>
       </c>
       <c r="N14">
-        <v>1.009399709577016</v>
+        <v>1.012263450986874</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038585485204742</v>
+        <v>1.038736436666633</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033781259696389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033898148561861</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021031095771813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9878639619516469</v>
+        <v>0.9884455074996166</v>
       </c>
       <c r="D15">
-        <v>1.017837305790914</v>
+        <v>1.017922040188043</v>
       </c>
       <c r="E15">
-        <v>0.9973124679072464</v>
+        <v>0.9978647188739126</v>
       </c>
       <c r="F15">
-        <v>1.022244002759666</v>
+        <v>1.022390200737517</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047417476882622</v>
+        <v>1.047460327840654</v>
       </c>
       <c r="J15">
-        <v>1.017596273328679</v>
+        <v>1.018152942346538</v>
       </c>
       <c r="K15">
-        <v>1.032360393869409</v>
+        <v>1.032443610868028</v>
       </c>
       <c r="L15">
-        <v>1.012213035163182</v>
+        <v>1.012754863875682</v>
       </c>
       <c r="M15">
-        <v>1.036688609811261</v>
+        <v>1.036832219117776</v>
       </c>
       <c r="N15">
-        <v>1.009557880781615</v>
+        <v>1.012321017824912</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038911161207169</v>
+        <v>1.039024668939404</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034026286935843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034101224833146</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02109908931014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9910825864971882</v>
+        <v>0.9913546337320264</v>
       </c>
       <c r="D16">
-        <v>1.020041815954561</v>
+        <v>1.019836437740753</v>
       </c>
       <c r="E16">
-        <v>0.9998572560573962</v>
+        <v>1.000133655919419</v>
       </c>
       <c r="F16">
-        <v>1.024380509898252</v>
+        <v>1.024300680461112</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048270031452658</v>
+        <v>1.048166105553763</v>
       </c>
       <c r="J16">
-        <v>1.019576595751217</v>
+        <v>1.019837611571851</v>
       </c>
       <c r="K16">
-        <v>1.034022754656229</v>
+        <v>1.033820889287028</v>
       </c>
       <c r="L16">
-        <v>1.014192402943617</v>
+        <v>1.014463826936202</v>
       </c>
       <c r="M16">
-        <v>1.038287663185034</v>
+        <v>1.038209184072549</v>
       </c>
       <c r="N16">
-        <v>1.010225842762877</v>
+        <v>1.012553129229425</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040136312491088</v>
+        <v>1.040074281384769</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03520480269123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035078467025656</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021400080651093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9929494193536618</v>
+        <v>0.9930741008313834</v>
       </c>
       <c r="D17">
-        <v>1.02129656081001</v>
+        <v>1.020942275849384</v>
       </c>
       <c r="E17">
-        <v>1.001305714626221</v>
+        <v>1.001457222361605</v>
       </c>
       <c r="F17">
-        <v>1.02549982843017</v>
+        <v>1.025305518354817</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048737256409395</v>
+        <v>1.048557911232032</v>
       </c>
       <c r="J17">
-        <v>1.020681263478913</v>
+        <v>1.020801057742202</v>
       </c>
       <c r="K17">
-        <v>1.034941211067512</v>
+        <v>1.034592811508896</v>
       </c>
       <c r="L17">
-        <v>1.015290888602761</v>
+        <v>1.015439749343354</v>
       </c>
       <c r="M17">
-        <v>1.039075052865939</v>
+        <v>1.038883936091023</v>
       </c>
       <c r="N17">
-        <v>1.010549549611767</v>
+        <v>1.01268372483268</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04062961107183</v>
+        <v>1.040478534319184</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035856770930586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035627072824019</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021552661825081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9937958213187607</v>
+        <v>0.9938921770292523</v>
       </c>
       <c r="D18">
-        <v>1.021813118599122</v>
+        <v>1.021413771761391</v>
       </c>
       <c r="E18">
-        <v>1.001908748856732</v>
+        <v>1.002048186353052</v>
       </c>
       <c r="F18">
-        <v>1.025785095913197</v>
+        <v>1.025558147223042</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048899755245682</v>
+        <v>1.048697554825288</v>
       </c>
       <c r="J18">
-        <v>1.021095281554112</v>
+        <v>1.021187933105894</v>
       </c>
       <c r="K18">
-        <v>1.035265660073533</v>
+        <v>1.034872836689665</v>
       </c>
       <c r="L18">
-        <v>1.015694615947836</v>
+        <v>1.015831658842148</v>
       </c>
       <c r="M18">
-        <v>1.039173108853465</v>
+        <v>1.03894982987537</v>
       </c>
       <c r="N18">
-        <v>1.010583104107123</v>
+        <v>1.012683909009747</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040469370403908</v>
+        <v>1.040292832773718</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03607452470974</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035812281268587</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021574387313533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.993711265416793</v>
+        <v>0.9938825792855865</v>
       </c>
       <c r="D19">
-        <v>1.021656894707555</v>
+        <v>1.021305353701742</v>
       </c>
       <c r="E19">
-        <v>1.001742803404736</v>
+        <v>1.001967444458863</v>
       </c>
       <c r="F19">
-        <v>1.025302324752579</v>
+        <v>1.025115671513316</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048786687111901</v>
+        <v>1.048608680938695</v>
       </c>
       <c r="J19">
-        <v>1.020877946708446</v>
+        <v>1.021042712542558</v>
       </c>
       <c r="K19">
-        <v>1.035049390332233</v>
+        <v>1.034703563118352</v>
       </c>
       <c r="L19">
-        <v>1.015467139143683</v>
+        <v>1.015687941850873</v>
       </c>
       <c r="M19">
-        <v>1.038635865541224</v>
+        <v>1.038452217837685</v>
       </c>
       <c r="N19">
-        <v>1.01036314001733</v>
+        <v>1.012551270711582</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039718919615845</v>
+        <v>1.039573669322843</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035928013035989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035699622384293</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021477403904972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9910016603275466</v>
+        <v>0.991537530409708</v>
       </c>
       <c r="D20">
-        <v>1.019605174695182</v>
+        <v>1.019560028949752</v>
       </c>
       <c r="E20">
-        <v>0.9994049591699529</v>
+        <v>0.9999898643472873</v>
       </c>
       <c r="F20">
-        <v>1.022709636047707</v>
+        <v>1.022767164191981</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047899222868845</v>
+        <v>1.047876371566958</v>
       </c>
       <c r="J20">
-        <v>1.018883914552094</v>
+        <v>1.019398609237115</v>
       </c>
       <c r="K20">
-        <v>1.033311833498193</v>
+        <v>1.033267442773784</v>
       </c>
       <c r="L20">
-        <v>1.013458279729247</v>
+        <v>1.014032891980688</v>
       </c>
       <c r="M20">
-        <v>1.036364581464281</v>
+        <v>1.036421155132728</v>
       </c>
       <c r="N20">
-        <v>1.009422653579249</v>
+        <v>1.012031947414078</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037393452421058</v>
+        <v>1.03743822465255</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034703426522505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034688560129908</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021046521539789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,105 +1617,123 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9849006938962706</v>
+        <v>0.9861017086194103</v>
       </c>
       <c r="D21">
-        <v>1.015388008332031</v>
+        <v>1.015941616801151</v>
       </c>
       <c r="E21">
-        <v>0.9945171039326364</v>
+        <v>0.9957186435627776</v>
       </c>
       <c r="F21">
-        <v>1.018492128533205</v>
+        <v>1.019021664645935</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046244799933119</v>
+        <v>1.046524700200903</v>
       </c>
       <c r="J21">
-        <v>1.015043562733097</v>
+        <v>1.016192227888367</v>
       </c>
       <c r="K21">
-        <v>1.030083599202121</v>
+        <v>1.030627136122472</v>
       </c>
       <c r="L21">
-        <v>1.009603101355366</v>
+        <v>1.010781584072272</v>
       </c>
       <c r="M21">
-        <v>1.033131431406059</v>
+        <v>1.033651409781563</v>
       </c>
       <c r="N21">
-        <v>1.008034118683553</v>
+        <v>1.011578956407836</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034793673136863</v>
+        <v>1.035205204329775</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032424189697724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032825354297795</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020449615367089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9809985468097435</v>
+        <v>0.9826250032553275</v>
       </c>
       <c r="D22">
-        <v>1.012701389572008</v>
+        <v>1.01363740491002</v>
       </c>
       <c r="E22">
-        <v>0.9914042034119822</v>
+        <v>0.9930003562984685</v>
       </c>
       <c r="F22">
-        <v>1.015843187253231</v>
+        <v>1.016674516690647</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045178161881133</v>
+        <v>1.045651068598179</v>
       </c>
       <c r="J22">
-        <v>1.012595996076473</v>
+        <v>1.014147209142348</v>
       </c>
       <c r="K22">
-        <v>1.028025359962719</v>
+        <v>1.028943458136226</v>
       </c>
       <c r="L22">
-        <v>1.00714788985378</v>
+        <v>1.008711764603838</v>
       </c>
       <c r="M22">
-        <v>1.031107188266405</v>
+        <v>1.031922730696573</v>
       </c>
       <c r="N22">
-        <v>1.007154279784025</v>
+        <v>1.011287163804433</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033191605775799</v>
+        <v>1.033837059264762</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030955372821217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031620087434515</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020070233537567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9830583899604011</v>
+        <v>0.9844430038013301</v>
       </c>
       <c r="D23">
-        <v>1.014114864975809</v>
+        <v>1.014836498423416</v>
       </c>
       <c r="E23">
-        <v>0.9930425072570465</v>
+        <v>0.9944137511351128</v>
       </c>
       <c r="F23">
-        <v>1.017239838640688</v>
+        <v>1.017901297277802</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045738992216582</v>
+        <v>1.046103722570466</v>
       </c>
       <c r="J23">
-        <v>1.01388215303714</v>
+        <v>1.015204686057012</v>
       </c>
       <c r="K23">
-        <v>1.029105335957197</v>
+        <v>1.02981352028269</v>
       </c>
       <c r="L23">
-        <v>1.008437024955551</v>
+        <v>1.009781292457002</v>
       </c>
       <c r="M23">
-        <v>1.0321722487094</v>
+        <v>1.032821477267102</v>
       </c>
       <c r="N23">
-        <v>1.007610822377586</v>
+        <v>1.011388090724731</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034034537862359</v>
+        <v>1.034548363212654</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031709292889979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032224644672081</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020260862783295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9909980567767032</v>
+        <v>0.9915478772091483</v>
       </c>
       <c r="D24">
-        <v>1.019580462595196</v>
+        <v>1.019543483037812</v>
       </c>
       <c r="E24">
-        <v>0.9993820723327295</v>
+        <v>0.999982914132299</v>
       </c>
       <c r="F24">
-        <v>1.022646381874782</v>
+        <v>1.022711150171317</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047878515752121</v>
+        <v>1.047859797614722</v>
       </c>
       <c r="J24">
-        <v>1.018847087503566</v>
+        <v>1.019375212076964</v>
       </c>
       <c r="K24">
-        <v>1.03327223264219</v>
+        <v>1.033235870773162</v>
       </c>
       <c r="L24">
-        <v>1.01342004817015</v>
+        <v>1.014010329824263</v>
       </c>
       <c r="M24">
-        <v>1.036287140352883</v>
+        <v>1.036350835264226</v>
       </c>
       <c r="N24">
-        <v>1.009382305255812</v>
+        <v>1.01200581369528</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037291220759083</v>
+        <v>1.037341631234738</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034647978614857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034636123066575</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021026064834404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.999829290223194</v>
+        <v>0.9997158471585083</v>
       </c>
       <c r="D25">
-        <v>1.025677639638461</v>
+        <v>1.024977378820028</v>
       </c>
       <c r="E25">
-        <v>1.006467056508949</v>
+        <v>1.00646801241249</v>
       </c>
       <c r="F25">
-        <v>1.028701653581145</v>
+        <v>1.028257931259808</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050198782493249</v>
+        <v>1.049843706051094</v>
       </c>
       <c r="J25">
-        <v>1.024362400799252</v>
+        <v>1.024252777965694</v>
       </c>
       <c r="K25">
-        <v>1.037890003957798</v>
+        <v>1.037199943096768</v>
       </c>
       <c r="L25">
-        <v>1.018965802474606</v>
+        <v>1.018966743781208</v>
       </c>
       <c r="M25">
-        <v>1.040870172380381</v>
+        <v>1.040432863178351</v>
       </c>
       <c r="N25">
-        <v>1.011348168112376</v>
+        <v>1.013309993974212</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040918390374281</v>
+        <v>1.040572289579349</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037910112972832</v>
+        <v>1.037435731767995</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021934810852993</v>
       </c>
     </row>
   </sheetData>
